--- a/listedestaches.xlsx
+++ b/listedestaches.xlsx
@@ -577,7 +577,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/listedestaches.xlsx
+++ b/listedestaches.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
   <si>
     <t>Module</t>
   </si>
@@ -175,6 +175,27 @@
   </si>
   <si>
     <t>2h</t>
+  </si>
+  <si>
+    <t>getPlat(idResto)</t>
+  </si>
+  <si>
+    <t>insertionPanier(plat)</t>
+  </si>
+  <si>
+    <t>valider commande</t>
+  </si>
+  <si>
+    <t>si dejaconnecte,envoi mail, sinon connexion puis envoi mail</t>
+  </si>
+  <si>
+    <t>fonction envoivalidationCommande(token)</t>
+  </si>
+  <si>
+    <t>fonctioninsertionCommande()</t>
+  </si>
+  <si>
+    <t>fonctionModifierPanier(incrementation nbre)</t>
   </si>
 </sst>
 </file>
@@ -574,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -973,6 +994,56 @@
       </c>
       <c r="C37" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
